--- a/Lab3/Normalize to 2NF.xlsx
+++ b/Lab3/Normalize to 2NF.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labfiles\Lab03\Starter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\index\Documents\GitHub\ITMO.10985-Introduction_to_SQL_Databases\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB56FBD2-AFC5-4A57-AB16-8EEAF22ADDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>OrderID</t>
   </si>
@@ -92,29 +93,6 @@
   </si>
   <si>
     <t>OrderID (Key)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Table</t>
-    </r>
   </si>
   <si>
     <r>
@@ -246,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -304,9 +282,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -317,6 +326,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7ADCA26-79AA-44C4-90EC-7DA2B9150009}" name="Таблица1" displayName="Таблица1" ref="B3:F6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B3:F6" xr:uid="{B38B9A90-8090-4B18-9B3B-8BAD0F8A5167}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{40FF6B50-1BA1-4B17-A604-5E11B1D8B853}" name="CustomerID"/>
+    <tableColumn id="2" xr3:uid="{8DA119EE-F7CF-435F-BD94-13B3EDB00A4F}" name="Customer "/>
+    <tableColumn id="3" xr3:uid="{3CAE2230-7F59-48A6-9A40-D7BCD6E65664}" name="Address"/>
+    <tableColumn id="4" xr3:uid="{24C50531-5992-4FBC-9CFF-82C4D123ED26}" name="Date of Birth" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F3D26AC2-5A33-4FC3-981D-BCFF716615D0}" name="Age"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F7791FD-A046-473B-B951-1A67000E1566}" name="Таблица2" displayName="Таблица2" ref="A12:C15" totalsRowShown="0">
+  <autoFilter ref="A12:C15" xr:uid="{EED71987-5561-4354-93C5-28A575DA96A5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5FD0919C-AC9A-42A4-A4D9-E816BF6B72BD}" name="OrderID (Key)"/>
+    <tableColumn id="2" xr3:uid="{F0BE86B6-35B9-4422-9BCE-CB471B6F8257}" name="OrderDate " dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4080A7A4-A995-4E03-801A-11EF4210C9B4}" name="CustomerID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,10 +616,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -713,7 +748,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -723,11 +758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,20 +781,12 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -773,11 +800,8 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4">
         <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>42371</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -793,11 +817,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5">
         <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>42371</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -813,11 +834,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
         <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>42372</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -830,16 +848,64 @@
       </c>
       <c r="F6">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42372</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -860,7 +926,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -868,10 +934,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -909,7 +975,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -982,7 +1048,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
